--- a/data/output/Pedidos_semanales/Pedido_Semana_07_24022026_semillas.xlsx
+++ b/data/output/Pedidos_semanales/Pedido_Semana_07_24022026_semillas.xlsx
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I10" s="5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3839,7 +3839,7 @@
         </is>
       </c>
       <c r="C49" s="5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
@@ -3849,7 +3849,7 @@
         </is>
       </c>
       <c r="C50" s="5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
